--- a/medicine/Enfance/Petit_Vampire/Petit_Vampire.xlsx
+++ b/medicine/Enfance/Petit_Vampire/Petit_Vampire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Petit Vampire est une série de bande dessinée écrite et dessinée par Joann Sfar, publiée chez Delcourt de 1999 à 2005, puis chez Rue de Sèvres à partir de 2017 avec la collaboration de Sandrina Jardel pour le scénario. Petit Vampire comporte également des nouvelles et des romans, et a connu des adaptations à la télévision et au cinéma.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Michel, un orphelin élevé par deux grands-parents fantaisistes, découvre un jour que ses devoirs se font sans lui pendant la nuit. Il glisse alors dans son cahier un mot adressé à son mystérieux assistant : « Merci pour les exercices, qui es-tu ? ». La réponse : « Je suis un vampire ». Une correspondance s'engagera entre les deux petits garçons, et Michel ne tardera pas à se faire beaucoup d'amis parmi les vampires et autres créatures étranges…
 </t>
@@ -543,7 +557,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Michel Douffon : le meilleur ami de Petit Vampire, un humain qui vient jouer avec lui la nuit ;
 Petit Vampire : Fernand de son vrai nom ; c'est le fils de Pandora ;
@@ -585,9 +601,14 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Première série (1999–2005)
-Scénario et dessin de Joann Sfar, couleurs de Walter, Delcourt.
-Petit Vampire va à l'école (1999)[1]
+          <t>Première série (1999–2005)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Scénario et dessin de Joann Sfar, couleurs de Walter, Delcourt.
+Petit Vampire va à l'école (1999)
 Petit Vampire fait du kung fu (2000)
 Petit Vampire et la Société protectrice des chiens (2001)
 Petit Vampire et la Maison qui avait l'air normale (2002)
@@ -596,57 +617,234 @@
 Petit Vampire et le Rêve de Tokyo, (2005)
 Autres éditions
 4 histoires de Petit Vampire (2005)  Recueil contenant les tomes 1, 2, 4 et 6 publié à l’occasion du 20e anniversaire des éditions Delcourt.
-Petit Vampire va à l'école et Petit Vampire fait du kung fu (2005)  Mini-albums édités en 250 000 exemplaires par Delcourt et distribués par la chaîne de restauration rapide Quick à la suite de la diffusion de la série animée.
-Nouvelle série (2017–)
-Scénario de Joann Sfar et Sandrina Jardel, dessins de Joann Sfar, couleurs de Brigitte Findakly, Rue de Sèvres.
+Petit Vampire va à l'école et Petit Vampire fait du kung fu (2005)  Mini-albums édités en 250 000 exemplaires par Delcourt et distribués par la chaîne de restauration rapide Quick à la suite de la diffusion de la série animée.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Petit_Vampire</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Petit_Vampire</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Livres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nouvelle série (2017–)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Scénario de Joann Sfar et Sandrina Jardel, dessins de Joann Sfar, couleurs de Brigitte Findakly, Rue de Sèvres.
 Le Serment des pirates (2017)
 La Maison de la terreur qui fait peur (2018)
-On ne joue pas avec la vie (2019)
-Nouvelles
-Recueils de nouvelles écrites par Joann Sfar et Sandrina Jardel, adaptées d’épisodes de la série animée, illustrations de Joann Sfar, Delcourt.
+On ne joue pas avec la vie (2019)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Petit_Vampire</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Petit_Vampire</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Livres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles écrites par Joann Sfar et Sandrina Jardel, adaptées d’épisodes de la série animée, illustrations de Joann Sfar, Delcourt.
 Victime de la mode (2004)  Contient les nouvelles Victime de la mode, La Nuit des vendanges et Chez Claude.
 Docteur Marguerite (2004)  Contient les nouvelles L’Œil du Cyclope, Docteur Marguerite et Le Régime de Tonton Tepesh.
-La Pêche à la tomate (2006)  Contient les nouvelles La Pêche à la tomate, Le Démon Ajazel et La Colonie trop mortelle.
-Romans
-Écrits par Joann Sfar, L'École des loisirs.
+La Pêche à la tomate (2006)  Contient les nouvelles La Pêche à la tomate, Le Démon Ajazel et La Colonie trop mortelle.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Petit_Vampire</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Petit_Vampire</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Livres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Écrits par Joann Sfar, L'École des loisirs.
 Le Film d'horreur (2020)
 Le Pouvoir du dragon (2020)
 Le Château sans thé (2021)</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Petit_Vampire</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Petit_Vampire</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Petit_Vampire</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Petit_Vampire</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Série d’animation
-Petit Vampire est une série d'animation produite par France Animation. Elle compte 52 épisodes, diffusée en France sur France 3 à partir du 25 octobre 2004, sur Gulli et sur Boomerang.
-Film d'animation
-Petit Vampire est un long-métrage d’animation sorti en 2020.
-Jeux
-Petit Vampire et le poisson est un jeu vidéo paru en 2000, développé par Pastaga.net.
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Série d’animation</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Petit Vampire est une série d'animation produite par France Animation. Elle compte 52 épisodes, diffusée en France sur France 3 à partir du 25 octobre 2004, sur Gulli et sur Boomerang.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Petit_Vampire</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Petit_Vampire</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Film d'animation</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Petit Vampire est un long-métrage d’animation sorti en 2020.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Petit_Vampire</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Petit_Vampire</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Jeux</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Petit Vampire et le poisson est un jeu vidéo paru en 2000, développé par Pastaga.net.
 La maison hantée de Petit Vampire est un jeu de société paru en 2019 chez l’École des loisirs.
 Petit Vampire: Escape box est un jeu d'évasion paru en 2020 chez les livres du Dragon d'Or.</t>
         </is>
